--- a/imageCreationExcel/back/0901-1/0901-1_6.xlsx
+++ b/imageCreationExcel/back/0901-1/0901-1_6.xlsx
@@ -486,7 +486,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\E.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -495,30 +495,32 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.7183592156780705</v>
+        <v>0.6959212891597418</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.8866663556430003</v>
+        <v>1.020543108980166</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>contrast</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1.168172326177449</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1_E_gamma0.72_sharpness0.89_contrast1.2.jpg</t>
+          <t>1_S_gamma0.7_contrast1.0.jpg</t>
         </is>
       </c>
     </row>
@@ -533,11 +535,11 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.9423703122326013</v>
+        <v>1.013092021479822</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -545,22 +547,24 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.8799584135351149</v>
+        <v>0.9071313974923635</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>equalization</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6.71532513360045</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2_0_contrast0.94_sharpness0.88_equalization6.7.jpg</t>
+          <t>2_0_gamma1.0_sharpness0.91.jpg</t>
         </is>
       </c>
     </row>
@@ -570,7 +574,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -579,30 +583,32 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.8743196815919296</v>
+        <v>1.030472009021058</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>13.84973394578739</v>
+        <v>0.2880287493987743</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>sharpness</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>0.8062037945134733</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3_P_contrast0.87_brightness14.0_sharpness0.81.jpg</t>
+          <t>3_S_contrast1.0_sharpness0.29.jpg</t>
         </is>
       </c>
     </row>
@@ -612,39 +618,41 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>28.50732689190966</v>
+        <v>0.5037005682916619</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.923801187824599</v>
+        <v>13.11323365661148</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>sharpness</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>0.2978322806291728</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>4_T_brightness29.0_gamma0.92_sharpness0.3.jpg</t>
+          <t>4_7_sharpness0.5_equalization13.0.jpg</t>
         </is>
       </c>
     </row>
@@ -654,39 +662,39 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\8.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.043251714053099</v>
+        <v>1.050266986752384</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.3282950481112492</v>
+        <v>0.9541982519210244</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.8446919894556526</v>
+        <v>4.447742936172731</v>
       </c>
       <c r="I6" t="n">
         <v>4</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>5_8_brightness1.0_sharpness0.33_gamma0.84.jpg</t>
+          <t>5_C_contrast1.1_gamma0.95_equalization4.4.jpg</t>
         </is>
       </c>
     </row>
@@ -696,41 +704,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\3.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\8.JPG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>25.8446969007038</v>
+        <v>0.8566848661690084</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.787268152625643</v>
+        <v>1.136737107163305</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0.6163969411333101</v>
       </c>
       <c r="I7" t="n">
         <v>4</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>6_3_brightness26.0_gamma0.79.jpg</t>
+          <t>6_8_sharpness0.86_contrast1.1_gamma0.62.jpg</t>
         </is>
       </c>
     </row>
@@ -745,11 +751,11 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1.060625266661251</v>
+        <v>0.7203325650369251</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -757,22 +763,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>18.8392659715863</v>
+        <v>7.694103775811513</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0.536650507232831</v>
+        <v>0.8635744499683115</v>
       </c>
       <c r="I8" t="n">
         <v>4</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>7_B_gamma1.1_brightness19.0_sharpness0.54.jpg</t>
+          <t>7_B_sharpness0.72_brightness7.7_contrast0.86.jpg</t>
         </is>
       </c>
     </row>
@@ -782,39 +788,41 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\Q.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1.146673168773486</v>
+        <v>29.81189566287748</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.4815401247522811</v>
+        <v>0.7743381795716356</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>equalization</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>26.57089543040091</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I9" t="n">
         <v>4</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>8_Q_contrast1.1_sharpness0.48_equalization27.0.jpg</t>
+          <t>8_C_brightness30.0_gamma0.77.jpg</t>
         </is>
       </c>
     </row>
@@ -824,39 +832,41 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.8389994819758874</v>
+        <v>12.87006331672803</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>8.744575894103095</v>
+        <v>1.179942595005136</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>gamma</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>0.5875408094899036</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>9_C_sharpness0.84_brightness8.7_gamma0.59.jpg</t>
+          <t>9_1_brightness13.0_contrast1.2.jpg</t>
         </is>
       </c>
     </row>
@@ -866,39 +876,39 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\Q.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.07177417374670758</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>contrast</t>
         </is>
       </c>
-      <c r="D11" t="n">
-        <v>0.9129268884369559</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>brightness</t>
-        </is>
-      </c>
       <c r="F11" t="n">
-        <v>20.44274326884149</v>
+        <v>0.8133634153025761</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>0.8822769020609436</v>
+        <v>8.572910483294693</v>
       </c>
       <c r="I11" t="n">
         <v>4</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>10_Q_contrast0.91_brightness20.0_sharpness0.88.jpg</t>
+          <t>10_9_sharpness0.072_contrast0.81_equalization8.6.jpg</t>
         </is>
       </c>
     </row>
@@ -908,39 +918,41 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\E.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\8.JPG</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.8428096465452188</v>
+        <v>19.21167553113126</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.7880751315891565</v>
+        <v>1.12873843672348</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>equalization</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>15.15415477223526</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I12" t="n">
         <v>4</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>11_E_gamma0.84_sharpness0.79_equalization15.0.jpg</t>
+          <t>11_8_brightness19.0_contrast1.1.jpg</t>
         </is>
       </c>
     </row>
@@ -950,7 +962,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -959,30 +971,32 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.9720064554178539</v>
+        <v>0.8492932944581839</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.9125793370245492</v>
+        <v>18.70611896234028</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>equalization</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>25.80819591250634</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I13" t="n">
         <v>1</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>12_C_sharpness0.97_gamma0.91_equalization26.0.jpg</t>
+          <t>12_S_sharpness0.85_equalization19.0.jpg</t>
         </is>
       </c>
     </row>
@@ -992,24 +1006,24 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\E.JPG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9903784940167051</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>sharpness</t>
         </is>
       </c>
-      <c r="D14" t="n">
-        <v>0.1390916561336288</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>gamma</t>
-        </is>
-      </c>
       <c r="F14" t="n">
-        <v>0.6142260341075673</v>
+        <v>0.9837252820490623</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1022,11 +1036,11 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>13_I_sharpness0.14_gamma0.61.jpg</t>
+          <t>13_E_gamma0.99_sharpness0.98.jpg</t>
         </is>
       </c>
     </row>
@@ -1036,41 +1050,39 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\8.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8159097201533475</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>contrast</t>
         </is>
       </c>
-      <c r="D15" t="n">
-        <v>0.8207369574724804</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>brightness</t>
-        </is>
-      </c>
       <c r="F15" t="n">
-        <v>8.311555458433755</v>
+        <v>1.150172429687761</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>0.8293697500369888</v>
       </c>
       <c r="I15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>14_8_contrast0.82_brightness8.3.jpg</t>
+          <t>14_I_gamma0.82_contrast1.2_sharpness0.83.jpg</t>
         </is>
       </c>
     </row>
@@ -1080,7 +1092,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1089,30 +1101,32 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1.024378900804452</v>
+        <v>0.8648856486203182</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.7358825972891323</v>
+        <v>10.13517791293032</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>equalization</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>7.95757636402556</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>15_2_contrast1.0_gamma0.74_equalization8.0.jpg</t>
+          <t>15_1_contrast0.86_equalization10.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1122,41 +1136,39 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\0.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0.7701299547369271</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>sharpness</t>
         </is>
       </c>
-      <c r="D17" t="n">
-        <v>0.7815000415824382</v>
-      </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="n">
+        <v>0.1820736922364069</v>
+      </c>
+      <c r="G17" t="inlineStr">
         <is>
           <t>equalization</t>
         </is>
       </c>
-      <c r="F17" t="n">
-        <v>31.0313786865247</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="H17" t="n">
+        <v>8.37431769293104</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>16_0_sharpness0.78_equalization31.0.jpg</t>
+          <t>16_1_gamma0.77_sharpness0.18_equalization8.4.jpg</t>
         </is>
       </c>
     </row>
@@ -1166,39 +1178,41 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.8793612495849811</v>
+        <v>1.091615026445315</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.2114551481139317</v>
+        <v>9.492291720994245</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>equalization</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>14.03739652507475</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I18" t="n">
         <v>4</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>17_2_contrast0.88_sharpness0.21_equalization14.0.jpg</t>
+          <t>17_C_gamma1.1_equalization9.5.jpg</t>
         </is>
       </c>
     </row>
@@ -1208,41 +1222,39 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\0.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\Q.JPG</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.9766487239375814</v>
+        <v>0.2985834605178098</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>8.928281649209341</v>
+        <v>0.8574387688915593</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>equalization</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>30.9165591015986</v>
       </c>
       <c r="I19" t="n">
         <v>4</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>18_0_gamma0.98_brightness8.9.jpg</t>
+          <t>18_Q_sharpness0.3_gamma0.86_equalization31.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1252,41 +1264,39 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>1.057272624914163</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>brightness</t>
         </is>
       </c>
-      <c r="D20" t="n">
-        <v>28.30156526971723</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>contrast</t>
-        </is>
-      </c>
       <c r="F20" t="n">
-        <v>0.8255826278158506</v>
+        <v>23.31556668782329</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>0.7907426095994767</v>
       </c>
       <c r="I20" t="n">
         <v>4</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>19_7_brightness28.0_contrast0.83.jpg</t>
+          <t>19_9_contrast1.1_brightness23.0_sharpness0.79.jpg</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1306,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\Q.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\E.JPG</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1305,7 +1315,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1.00558285563422</v>
+        <v>0.6654400444236429</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1313,24 +1323,22 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.6232699866556524</v>
+        <v>0.1733931012417353</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>0.9082094267600326</v>
       </c>
       <c r="I21" t="n">
         <v>4</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>20_Q_gamma1.0_sharpness0.62.jpg</t>
+          <t>20_E_gamma0.67_sharpness0.17_contrast0.91.jpg</t>
         </is>
       </c>
     </row>
@@ -1340,7 +1348,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\3.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1349,32 +1357,30 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.1203884602786114</v>
+        <v>0.7636325024658421</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>6.296185055619002</v>
+        <v>15.46121439205711</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1.05353548057734</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>21_3_sharpness0.12_equalization6.3.jpg</t>
+          <t>21_T_sharpness0.76_brightness15.0_gamma1.1.jpg</t>
         </is>
       </c>
     </row>
@@ -1384,41 +1390,39 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\E.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.5293226234674314</v>
+        <v>0.9494058516484027</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>0.6507377052986174</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>equalization</t>
         </is>
       </c>
-      <c r="F23" t="n">
-        <v>8.000597368652219</v>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="H23" t="n">
+        <v>6.155285379550122</v>
       </c>
       <c r="I23" t="n">
         <v>4</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>22_E_gamma0.53_equalization8.0.jpg</t>
+          <t>22_9_sharpness0.95_gamma0.65_equalization6.2.jpg</t>
         </is>
       </c>
     </row>
@@ -1428,39 +1432,41 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>15.70868227697191</v>
+        <v>1.050612957108598</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.071620673684937</v>
+        <v>17.24271817446473</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>contrast</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>0.8587545284396064</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>23_P_brightness16.0_gamma1.1_contrast0.86.jpg</t>
+          <t>23_1_contrast1.1_equalization17.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1470,16 +1476,16 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\J.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.1834802463619434</v>
+        <v>8.215922053000586</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1487,24 +1493,22 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.8029531482496806</v>
+        <v>0.8381582656539884</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>0.9379132461085767</v>
       </c>
       <c r="I25" t="n">
         <v>4</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>24_J_sharpness0.18_gamma0.8.jpg</t>
+          <t>24_C_brightness8.2_gamma0.84_contrast0.94.jpg</t>
         </is>
       </c>
     </row>
@@ -1514,39 +1518,41 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\Q.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\3.JPG</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>1.068648256181671</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
           <t>sharpness</t>
         </is>
       </c>
-      <c r="D26" t="n">
-        <v>0.067431016533545</v>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>contrast</t>
-        </is>
-      </c>
       <c r="F26" t="n">
-        <v>0.9046513974003499</v>
+        <v>0.6185222416894384</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>equalization</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>12.28521074745336</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>25_Q_sharpness0.067_contrast0.9_equalization12.0.jpg</t>
+          <t>25_3_contrast1.1_sharpness0.62.jpg</t>
         </is>
       </c>
     </row>
@@ -1556,7 +1562,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\E.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1565,32 +1571,30 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.8313038186819456</v>
+        <v>0.9754029483156748</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>20.54664501874996</v>
+        <v>26.49620841338308</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>0.9140377757179875</v>
       </c>
       <c r="I27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>26_E_gamma0.83_equalization21.0.jpg</t>
+          <t>26_I_gamma0.98_brightness26.0_contrast0.91.jpg</t>
         </is>
       </c>
     </row>
@@ -1600,7 +1604,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1609,30 +1613,30 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.03045146897694029</v>
+        <v>0.9128050077522006</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>18.28402550432417</v>
+        <v>0.7492930145666696</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0.7936464753052961</v>
+        <v>8.862819779218722</v>
       </c>
       <c r="I28" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>27_I_sharpness0.03_brightness18.0_gamma0.79.jpg</t>
+          <t>27_7_sharpness0.91_gamma0.75_equalization8.9.jpg</t>
         </is>
       </c>
     </row>
@@ -1642,24 +1646,24 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1.049455719068164</v>
+        <v>18.70331960150795</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>14.14155469769764</v>
+        <v>0.94063212594616</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1676,7 +1680,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>28_S_contrast1.0_equalization14.0.jpg</t>
+          <t>28_T_brightness19.0_gamma0.94.jpg</t>
         </is>
       </c>
     </row>
@@ -1686,39 +1690,39 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.8975304168737154</v>
+        <v>0.7832947358036004</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>0.70010330359188</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>contrast</t>
         </is>
       </c>
-      <c r="F30" t="n">
-        <v>1.133905928097429</v>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>equalization</t>
-        </is>
-      </c>
       <c r="H30" t="n">
-        <v>22.0270513511777</v>
+        <v>1.040019405779754</v>
       </c>
       <c r="I30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>29_C_gamma0.9_contrast1.1_equalization22.0.jpg</t>
+          <t>29_9_sharpness0.78_gamma0.7_contrast1.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1728,39 +1732,39 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\J.JPG</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>1.097084253428783</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
           <t>brightness</t>
         </is>
       </c>
-      <c r="D31" t="n">
-        <v>19.20221987485661</v>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>contrast</t>
-        </is>
-      </c>
       <c r="F31" t="n">
-        <v>1.096736689161188</v>
+        <v>22.81375064228379</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>0.6775195438582222</v>
+        <v>0.6776979874987743</v>
       </c>
       <c r="I31" t="n">
         <v>4</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>30_9_brightness19.0_contrast1.1_sharpness0.68.jpg</t>
+          <t>30_J_contrast1.1_brightness23.0_gamma0.68.jpg</t>
         </is>
       </c>
     </row>
@@ -1770,7 +1774,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\8.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1779,30 +1783,32 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.164441841982223</v>
+        <v>0.05503014300095854</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>10.63123317972516</v>
+        <v>19.33957212288869</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>contrast</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>1.162413527756063</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I32" t="n">
         <v>4</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>31_8_sharpness0.16_brightness11.0_contrast1.2.jpg</t>
+          <t>31_P_sharpness0.055_equalization19.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1821,30 +1827,32 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.5802443701260811</v>
+        <v>0.5370223967072716</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.109697805026955</v>
+        <v>27.96909138633402</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>equalization</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>17.1636081212455</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>32_E_gamma0.58_contrast1.1_equalization17.0.jpg</t>
+          <t>32_E_gamma0.54_equalization28.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1854,24 +1862,24 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.9146103347798037</v>
+        <v>29.09057437081949</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>28.42128776773015</v>
+        <v>0.2264103274893146</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1888,7 +1896,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>33_I_contrast0.91_brightness28.0.jpg</t>
+          <t>33_P_brightness29.0_sharpness0.23.jpg</t>
         </is>
       </c>
     </row>
@@ -1898,39 +1906,39 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.9549309218793723</v>
+        <v>14.08254001455979</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.081072761154602</v>
+        <v>0.9444601412571167</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>18.2966635221502</v>
+        <v>0.9067311959109696</v>
       </c>
       <c r="I35" t="n">
         <v>4</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>34_2_contrast0.95_gamma1.1_equalization18.0.jpg</t>
+          <t>34_9_brightness14.0_sharpness0.94_gamma0.91.jpg</t>
         </is>
       </c>
     </row>
@@ -1940,39 +1948,39 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.6507403611254134</v>
+        <v>0.9682576848856258</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.2765042824180443</v>
+        <v>5.201126345266662</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>0.813292949409704</v>
+        <v>0.7024273387761282</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>35_T_gamma0.65_sharpness0.28_contrast0.81.jpg</t>
+          <t>35_9_contrast0.97_brightness5.2_gamma0.7.jpg</t>
         </is>
       </c>
     </row>
@@ -1982,7 +1990,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\J.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1991,15 +1999,15 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.731938680901429</v>
+        <v>0.5612203403194154</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.01062086800716</v>
+        <v>29.65134341408864</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -2012,11 +2020,11 @@
         </is>
       </c>
       <c r="I37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>36_J_gamma0.73_contrast1.0.jpg</t>
+          <t>36_I_gamma0.56_equalization30.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2026,39 +2034,41 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.576998999294032</v>
+        <v>0.5595643355583337</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.099078192184346</v>
+        <v>21.9384335531415</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>equalization</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>8.218786221664622</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I38" t="n">
         <v>4</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>37_P_sharpness0.58_contrast1.1_equalization8.2.jpg</t>
+          <t>37_7_gamma0.56_equalization22.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2068,16 +2078,16 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\E.JPG</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1.199071402711044</v>
+        <v>0.8719690132986642</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -2085,24 +2095,22 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.06639084218729641</v>
+        <v>0.4930185628372051</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>equalization</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>28.17702691402291</v>
       </c>
       <c r="I39" t="n">
         <v>4</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>38_2_contrast1.2_sharpness0.066.jpg</t>
+          <t>38_E_gamma0.87_sharpness0.49_equalization28.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2112,24 +2120,24 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>1.039964950294638</v>
+        <v>0.9491683559169212</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.1146611155516719</v>
+        <v>0.8321688676403121</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2137,14 +2145,14 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>30.23413784061522</v>
+        <v>17.3749832432435</v>
       </c>
       <c r="I40" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>39_7_gamma1.0_sharpness0.11_equalization30.0.jpg</t>
+          <t>39_C_contrast0.95_gamma0.83_equalization17.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2154,7 +2162,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\Q.JPG</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2163,7 +2171,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>21.65882798173233</v>
+        <v>7.253680380436954</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -2171,22 +2179,22 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.9079868992287299</v>
+        <v>0.6987418552927238</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>0.984100160669248</v>
+        <v>1.106394406464545</v>
       </c>
       <c r="I41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>40_9_brightness22.0_gamma0.91_sharpness0.98.jpg</t>
+          <t>40_Q_brightness7.3_gamma0.7_contrast1.1.jpg</t>
         </is>
       </c>
     </row>
@@ -2196,24 +2204,24 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>1.059412211960179</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
           <t>brightness</t>
         </is>
       </c>
-      <c r="D42" t="n">
-        <v>28.5883859877689</v>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>gamma</t>
-        </is>
-      </c>
       <c r="F42" t="n">
-        <v>1.038866512124916</v>
+        <v>20.06600773145539</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2230,7 +2238,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>41_I_brightness29.0_gamma1.0.jpg</t>
+          <t>41_1_contrast1.1_brightness20.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2240,41 +2248,39 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>0.9863150613840461</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>1.10764527452528</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
           <t>brightness</t>
         </is>
       </c>
-      <c r="D43" t="n">
-        <v>1.777869201526309</v>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>gamma</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>0.9356003950426114</v>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="H43" t="n">
+        <v>29.18563200971196</v>
       </c>
       <c r="I43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>42_1_brightness1.8_gamma0.94.jpg</t>
+          <t>42_B_gamma0.99_contrast1.1_brightness29.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2284,41 +2290,39 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\8.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\0.JPG</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>1.097191875176158</v>
+        <v>0.6310132665918351</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>0.5893425798459784</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
           <t>equalization</t>
         </is>
       </c>
-      <c r="F44" t="n">
-        <v>21.40324527425128</v>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="H44" t="n">
+        <v>15.82155001582015</v>
       </c>
       <c r="I44" t="n">
         <v>4</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>43_8_contrast1.1_equalization21.0.jpg</t>
+          <t>43_0_gamma0.63_sharpness0.59_equalization16.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2328,39 +2332,41 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.739078046175396</v>
+        <v>0.8958092955829415</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>7.293142165135603</v>
+        <v>21.51125534395995</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>gamma</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>1.05256982183101</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I45" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>44_2_sharpness0.74_brightness7.3_gamma1.1.jpg</t>
+          <t>44_1_contrast0.9_equalization22.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2370,39 +2376,41 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\E.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1.146430435263878</v>
+        <v>19.60193086244321</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.5302026898873801</v>
+        <v>0.8949327344805814</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>equalization</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>19.49946570441177</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I46" t="n">
         <v>4</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>45_E_contrast1.1_gamma0.53_equalization19.0.jpg</t>
+          <t>45_C_brightness20.0_sharpness0.89.jpg</t>
         </is>
       </c>
     </row>
@@ -2412,24 +2420,24 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\E.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\0.JPG</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>0.8025988013350599</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
           <t>sharpness</t>
         </is>
       </c>
-      <c r="D47" t="n">
-        <v>0.7235083909917092</v>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>equalization</t>
-        </is>
-      </c>
       <c r="F47" t="n">
-        <v>25.11893942632283</v>
+        <v>0.1272709330605186</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2446,7 +2454,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>46_E_sharpness0.72_equalization25.0.jpg</t>
+          <t>46_0_gamma0.8_sharpness0.13.jpg</t>
         </is>
       </c>
     </row>
@@ -2456,24 +2464,24 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\0.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>23.34633162723869</v>
+        <v>0.6101096277170945</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.001517131188107</v>
+        <v>26.52928212656706</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2490,7 +2498,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>47_0_brightness23.0_contrast1.0.jpg</t>
+          <t>47_9_gamma0.61_equalization27.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2505,36 +2513,34 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.9795218411206454</v>
+        <v>27.97841587355629</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>31.90035506824216</v>
+        <v>0.9674961224948271</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>0.9518368897543099</v>
       </c>
       <c r="I49" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>48_7_contrast0.98_equalization32.0.jpg</t>
+          <t>48_7_brightness28.0_sharpness0.97_gamma0.95.jpg</t>
         </is>
       </c>
     </row>
